--- a/Indicaciones articulos.xlsx
+++ b/Indicaciones articulos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Ledesma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paz\Documents\GitHub\TFM-STOCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A93FF4A-5DCA-43E1-8FD6-CEA200DD63BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756E97A-D6D7-4F2C-B199-975BAE726DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="79">
   <si>
-    <t>Info extra</t>
-  </si>
-  <si>
     <t>COD_ART</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Rosca</t>
+  </si>
+  <si>
+    <t>Clasificacion</t>
   </si>
 </sst>
 </file>
@@ -593,49 +593,49 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>244719</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>134.85314</v>
@@ -644,35 +644,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>244721</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>274756</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>160.28813</v>
@@ -681,18 +681,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>274757</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>205.74289999999999</v>
@@ -701,18 +701,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>300600</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>85</v>
@@ -721,18 +721,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>400121</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>196.35136</v>
@@ -741,35 +741,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>400221</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>400231</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>160.18779000000001</v>
@@ -778,18 +778,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>400233</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>160.28813</v>
@@ -798,18 +798,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>400323</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>158</v>
@@ -818,18 +818,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>401101</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>224</v>
@@ -838,18 +838,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>401111</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>224.45714000000001</v>
@@ -858,18 +858,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>401113</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>224.45714000000001</v>
@@ -878,18 +878,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>401301</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>160.34482</v>
@@ -898,18 +898,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>401421</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>137.06227000000001</v>
@@ -918,35 +918,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>401621</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>401423</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>120.91656</v>
@@ -955,18 +955,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>401871</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>182.74110999999999</v>
@@ -975,18 +975,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>401881</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>205.58375000000001</v>
@@ -995,35 +995,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>402001</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>402011</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>246.74845999999999</v>
@@ -1032,18 +1032,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>402801</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>224.44443999999999</v>
@@ -1052,35 +1052,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>403321</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>403341</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>242.11179999999999</v>
@@ -1089,18 +1089,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>403801</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>205.70098999999999</v>
@@ -1109,18 +1109,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>404903</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>186.988</v>
@@ -1129,18 +1129,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>405121</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>196.35943</v>
@@ -1149,35 +1149,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>405221</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>405231</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>160</v>
@@ -1186,18 +1186,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>405621</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>138.09506999999999</v>
@@ -1206,18 +1206,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>406002</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>136.80038999999999</v>
@@ -1226,18 +1226,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>406301</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>224.39760000000001</v>
@@ -1246,18 +1246,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>406401</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>205.74289999999999</v>
@@ -1266,18 +1266,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>406501</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>187.00422</v>
@@ -1286,32 +1286,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>407301</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F36">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>407401</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>130.89849000000001</v>
@@ -1320,18 +1320,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>407411</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>130.89596</v>
@@ -1340,18 +1340,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>411001</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>134.71252999999999</v>
@@ -1360,35 +1360,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>421331</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>421702</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>180.00603000000001</v>
@@ -1397,18 +1397,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>421802</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <v>163.20403999999999</v>
@@ -1417,18 +1417,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>422002</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <v>179.99914999999999</v>
@@ -1437,18 +1437,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>423111</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>155.78171</v>
@@ -1457,18 +1457,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>423301</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>167.3356</v>
@@ -1477,18 +1477,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>423321</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46">
         <v>155.66037</v>
@@ -1497,18 +1497,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>423611</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>192.76760999999999</v>
@@ -1517,32 +1517,32 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>424421</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>425201</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>152.99914999999999</v>
@@ -1551,18 +1551,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>425351</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>192.67272</v>
@@ -1571,18 +1571,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>430101</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51">
         <v>187.00568999999999</v>
@@ -1591,18 +1591,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <v>430301</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>127.17655000000001</v>
@@ -1611,18 +1611,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>430401</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>134.85559000000001</v>
@@ -1631,18 +1631,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>430621</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54">
         <v>166.27760000000001</v>
@@ -1651,18 +1651,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>430702</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>158.42696000000001</v>
@@ -1671,18 +1671,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>430731</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>158.31932</v>
@@ -1691,18 +1691,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>431610</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>136.00085999999999</v>
@@ -1711,18 +1711,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>432111</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>166.22628</v>
@@ -1731,18 +1731,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>432211</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <v>166.21578</v>
@@ -1751,18 +1751,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>432311</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>166.21038999999999</v>
@@ -1771,18 +1771,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>432421</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61">
         <v>149.60847000000001</v>
@@ -1791,18 +1791,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>432501</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <v>187.00706</v>
@@ -1811,18 +1811,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>432821</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <v>169.99643</v>
@@ -1831,18 +1831,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>432911</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <v>158.39643000000001</v>
@@ -1851,18 +1851,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65">
         <v>433701</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>133.91913</v>
@@ -1871,18 +1871,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66">
         <v>434011</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66">
         <v>158.39017000000001</v>
@@ -1891,18 +1891,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67">
         <v>434111</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67">
         <v>158.40635</v>
@@ -1911,18 +1911,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68">
         <v>434201</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>185.45964000000001</v>
@@ -1931,18 +1931,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>434721</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>134.85559000000001</v>
@@ -1951,18 +1951,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>435711</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>122.40097</v>
@@ -1971,35 +1971,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71">
         <v>436001</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>436011</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>133.84614999999999</v>
@@ -2008,18 +2008,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73">
         <v>436701</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73">
         <v>134.87342000000001</v>
@@ -2028,18 +2028,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74">
         <v>438801</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>138.83391</v>
@@ -2048,35 +2048,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75">
         <v>453201</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76">
         <v>453211</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>108.80043000000001</v>
@@ -2085,18 +2085,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77">
         <v>453221</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>108.80043000000001</v>
@@ -2105,18 +2105,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78">
         <v>453223</v>
       </c>
       <c r="C78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>102.00064</v>
@@ -2125,18 +2125,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79">
         <v>453233</v>
       </c>
       <c r="C79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79">
         <v>113.63273</v>
@@ -2145,18 +2145,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80">
         <v>453241</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>113.63273</v>
@@ -2165,18 +2165,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81">
         <v>453243</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>123.95874000000001</v>
@@ -2185,18 +2185,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82">
         <v>453251</v>
       </c>
       <c r="C82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>118.69587</v>
@@ -2205,18 +2205,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83">
         <v>454001</v>
       </c>
       <c r="C83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>98.904700000000005</v>
@@ -2225,18 +2225,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84">
         <v>5718540</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>138.85713999999999</v>
@@ -2245,18 +2245,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85">
         <v>5718619</v>
       </c>
       <c r="C85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E85">
         <v>160.291</v>
@@ -2265,18 +2265,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86">
         <v>5720811</v>
       </c>
       <c r="C86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86">
         <v>107.09612</v>
@@ -2285,18 +2285,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87">
         <v>604301</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87">
         <v>166.21437</v>
@@ -2311,26 +2311,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18f377f8-e6bf-4b22-ba74-35bab4fd7c18">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9e45aa18-65cc-4e82-a74d-83c2f923cfee" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007C7797E4E4FBEC4480D40018AE06B388" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="329bd0f08076201caa9a4f0b59d9327f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18f377f8-e6bf-4b22-ba74-35bab4fd7c18" xmlns:ns3="9e45aa18-65cc-4e82-a74d-83c2f923cfee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aba96375c6b584f7d0fd773a8b3fe737" ns2:_="" ns3:_="">
     <xsd:import namespace="18f377f8-e6bf-4b22-ba74-35bab4fd7c18"/>
@@ -2523,10 +2503,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18f377f8-e6bf-4b22-ba74-35bab4fd7c18">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9e45aa18-65cc-4e82-a74d-83c2f923cfee" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6CAD16-F81E-4137-B481-2A872A657004}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3312C412-924C-4BD2-941F-89FEDF22B683}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18f377f8-e6bf-4b22-ba74-35bab4fd7c18"/>
+    <ds:schemaRef ds:uri="9e45aa18-65cc-4e82-a74d-83c2f923cfee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2543,20 +2554,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3312C412-924C-4BD2-941F-89FEDF22B683}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF6CAD16-F81E-4137-B481-2A872A657004}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18f377f8-e6bf-4b22-ba74-35bab4fd7c18"/>
-    <ds:schemaRef ds:uri="9e45aa18-65cc-4e82-a74d-83c2f923cfee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>